--- a/scripts/Report_Templates/Comp_Summary_Template.xlsx
+++ b/scripts/Report_Templates/Comp_Summary_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zelda\Desktop\Work\ISIAL\SalesReportingAutomation\SalesReportAutomationProduct\scripts\Report_Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A721AD2A-7636-4854-89A0-901BA38563F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C697AB2-9CB7-4BAC-B6AD-B0692940209C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-10910" windowWidth="19420" windowHeight="10300" tabRatio="732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Comp. Summary" sheetId="10" r:id="rId1"/>
@@ -455,46 +455,46 @@
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -957,7 +957,7 @@
   <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -977,26 +977,26 @@
     <row r="1" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="10"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
     </row>
     <row r="3" spans="1:10" ht="19" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11"/>
@@ -1016,181 +1016,181 @@
       <c r="A6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
     </row>
     <row r="9" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" spans="1:10" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="14.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
     </row>
     <row r="17" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
     </row>
     <row r="18" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
     </row>
     <row r="19" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
     </row>
     <row r="20" spans="1:9" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
